--- a/SHCourseGroupCodeAdmin/Template/課程代碼表樣版.xlsx
+++ b/SHCourseGroupCodeAdmin/Template/課程代碼表樣版.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>最後更新日期</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>群組代碼</t>
   </si>
@@ -398,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -407,20 +404,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.25" style="4" customWidth="1"/>
-    <col min="5" max="6" width="10.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.25" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12" style="4" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="4" customWidth="1"/>
+    <col min="4" max="5" width="10.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -454,11 +450,8 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -470,7 +463,6 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SHCourseGroupCodeAdmin/Template/課程代碼表樣版.xlsx
+++ b/SHCourseGroupCodeAdmin/Template/課程代碼表樣版.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>群組代碼</t>
   </si>
@@ -58,6 +58,12 @@
   <si>
     <t>授課學期學分/節數</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授課開課方式</t>
+  </si>
+  <si>
+    <t>課程屬性</t>
   </si>
 </sst>
 </file>
@@ -103,7 +109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -114,6 +120,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -414,9 +423,10 @@
     <col min="9" max="9" width="9.875" style="4" customWidth="1"/>
     <col min="10" max="10" width="12" style="4" customWidth="1"/>
     <col min="11" max="11" width="20.375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -450,8 +460,14 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
